--- a/data/trans_orig/P04B3_3_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_3_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>7683</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2703</v>
+        <v>2499</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20015</v>
+        <v>18350</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01395416505752106</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004908362575174103</v>
+        <v>0.004538568899022254</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03634997558305589</v>
+        <v>0.0333268786510209</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -762,19 +762,19 @@
         <v>7828</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4280</v>
+        <v>4314</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13981</v>
+        <v>13490</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01607493670319944</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00878952612405161</v>
+        <v>0.008859512483036625</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0287092087138648</v>
+        <v>0.02770152173104724</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -783,19 +783,19 @@
         <v>15512</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8208</v>
+        <v>8988</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26109</v>
+        <v>26669</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01494951422296852</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007910708881974636</v>
+        <v>0.008662063174259804</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02516288504970443</v>
+        <v>0.02570247053817322</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>37625</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25827</v>
+        <v>26314</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52729</v>
+        <v>51804</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06833296003393251</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04690506911939842</v>
+        <v>0.04779021438541201</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09576350880877345</v>
+        <v>0.09408399571695406</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -833,19 +833,19 @@
         <v>24917</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16096</v>
+        <v>16673</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>36504</v>
+        <v>36940</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05116706871894876</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03305254830090273</v>
+        <v>0.03423671282650533</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07496090264444695</v>
+        <v>0.07585581592745944</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>63</v>
@@ -854,19 +854,19 @@
         <v>62543</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>48386</v>
+        <v>49214</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>82112</v>
+        <v>82178</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06027643229349988</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04663273604485221</v>
+        <v>0.04743054145188207</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07913637510134369</v>
+        <v>0.07919982830191102</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>505309</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>489541</v>
+        <v>489828</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>518325</v>
+        <v>517484</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9177128749085465</v>
+        <v>0.9177128749085464</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8890759456690003</v>
+        <v>0.8895970608592327</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.941351863219026</v>
+        <v>0.9398240691719257</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>645</v>
@@ -904,19 +904,19 @@
         <v>454234</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>441852</v>
+        <v>442169</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>463985</v>
+        <v>463220</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.9327579945778518</v>
+        <v>0.9327579945778517</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9073335578624744</v>
+        <v>0.907984273168524</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9527821543213366</v>
+        <v>0.9512121587846597</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1159</v>
@@ -925,19 +925,19 @@
         <v>959543</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>938161</v>
+        <v>937521</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>975538</v>
+        <v>973961</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9247740534835317</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9041667430508747</v>
+        <v>0.9035502535695019</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9401896040956282</v>
+        <v>0.9386695795159851</v>
       </c>
     </row>
     <row r="7">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4361</v>
+        <v>4458</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.001796893481475608</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.009024636252518094</v>
+        <v>0.009226094233076451</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1050,19 +1050,19 @@
         <v>4256</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1582</v>
+        <v>1596</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9283</v>
+        <v>9542</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01005760003512487</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.00373887920201872</v>
+        <v>0.00377149587573869</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02193770350419172</v>
+        <v>0.0225494494836506</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -1071,19 +1071,19 @@
         <v>5124</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2311</v>
+        <v>2070</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11038</v>
+        <v>9971</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.005653504791784858</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002549320445313443</v>
+        <v>0.0022840799133343</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01217823520992209</v>
+        <v>0.01100089118914041</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>34403</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>25110</v>
+        <v>24449</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>47962</v>
+        <v>47632</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07119663168300526</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05196518037075608</v>
+        <v>0.05059628810936086</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0992562973495396</v>
+        <v>0.0985737454935274</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>31</v>
@@ -1121,19 +1121,19 @@
         <v>23323</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15398</v>
+        <v>16038</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>33221</v>
+        <v>33389</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05511851556379681</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03639013385001454</v>
+        <v>0.03790185733203153</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0785093158466928</v>
+        <v>0.07890719390113433</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>66</v>
@@ -1142,19 +1142,19 @@
         <v>57726</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>45438</v>
+        <v>45359</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>73231</v>
+        <v>75298</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06369036765206564</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05013288152649908</v>
+        <v>0.0500452503827181</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08079764310765714</v>
+        <v>0.083077841657695</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>447941</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>434544</v>
+        <v>434663</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>457599</v>
+        <v>458323</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9270064748355191</v>
+        <v>0.9270064748355192</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8992816140145415</v>
+        <v>0.8995283175743688</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9469946635726019</v>
+        <v>0.9484931638651312</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>553</v>
@@ -1192,19 +1192,19 @@
         <v>395564</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>385620</v>
+        <v>385336</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>404311</v>
+        <v>403707</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9348238844010781</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9113232321008495</v>
+        <v>0.9106518545272894</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9554941775066249</v>
+        <v>0.9540677003680382</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>998</v>
@@ -1213,19 +1213,19 @@
         <v>843505</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>828532</v>
+        <v>825416</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>856423</v>
+        <v>856294</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9306561275561496</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.914136164850117</v>
+        <v>0.9106979221768142</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.944909516920611</v>
+        <v>0.9447669946798345</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>11136</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5863</v>
+        <v>5456</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19112</v>
+        <v>18867</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02365883763245243</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01245650044239237</v>
+        <v>0.01159253228789691</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0406063281897003</v>
+        <v>0.04008440345494772</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4086</v>
+        <v>3767</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.003627171376623306</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0217935407555402</v>
+        <v>0.02009033576657582</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -1359,19 +1359,19 @@
         <v>11816</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6663</v>
+        <v>6473</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>20626</v>
+        <v>19676</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.01795232467997301</v>
+        <v>0.017952324679973</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01012335905387375</v>
+        <v>0.009834056698368536</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0313378206407041</v>
+        <v>0.0298943861224269</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>30448</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21760</v>
+        <v>21834</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41746</v>
+        <v>42411</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06469010905455382</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04623169181618951</v>
+        <v>0.04638820487036532</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08869304602803912</v>
+        <v>0.09010559305458048</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -1409,19 +1409,19 @@
         <v>17706</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11571</v>
+        <v>11707</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25594</v>
+        <v>25437</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09443401849077503</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06171390623016194</v>
+        <v>0.0624392832073099</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1365038341566101</v>
+        <v>0.1356637057678174</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -1430,19 +1430,19 @@
         <v>48154</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37145</v>
+        <v>37087</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61819</v>
+        <v>63706</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0731633934177944</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05643593524934884</v>
+        <v>0.05634895340519674</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09392545216937964</v>
+        <v>0.09679190637016671</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>429093</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>416197</v>
+        <v>416438</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>439885</v>
+        <v>440498</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9116510533129938</v>
+        <v>0.9116510533129939</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8842521205894777</v>
+        <v>0.8847646158207987</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.934579572511737</v>
+        <v>0.9358807861076194</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>262</v>
@@ -1480,19 +1480,19 @@
         <v>169111</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>161336</v>
+        <v>161315</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>175472</v>
+        <v>175398</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9019388101326016</v>
+        <v>0.9019388101326017</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8604742240438886</v>
+        <v>0.8603585405080461</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9358669115671724</v>
+        <v>0.9354720189196837</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>701</v>
@@ -1501,19 +1501,19 @@
         <v>598205</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>583798</v>
+        <v>582583</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>611067</v>
+        <v>610136</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9088842819022325</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.886995797246235</v>
+        <v>0.8851489658218421</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.928426269858143</v>
+        <v>0.9270110932129959</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>13338</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7150</v>
+        <v>7218</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22991</v>
+        <v>22914</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01178454791254191</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006317111690911644</v>
+        <v>0.006377441755383302</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02031307515313243</v>
+        <v>0.02024479243644683</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -1626,19 +1626,19 @@
         <v>12461</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7638</v>
+        <v>7050</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19211</v>
+        <v>18815</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01449728123324179</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008885905488448172</v>
+        <v>0.008202485750509537</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02235023874920042</v>
+        <v>0.02188961661091806</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -1647,19 +1647,19 @@
         <v>25799</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17747</v>
+        <v>18041</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36640</v>
+        <v>37543</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01295544315019854</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008911678785063749</v>
+        <v>0.009059475393549751</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01839910612899709</v>
+        <v>0.01885278285515981</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>87865</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>69770</v>
+        <v>70167</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>109330</v>
+        <v>113330</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07763001773138964</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06164252553199724</v>
+        <v>0.06199328412711277</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09659438168355815</v>
+        <v>0.1001283431228269</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>93</v>
@@ -1697,19 +1697,19 @@
         <v>73136</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>58412</v>
+        <v>58242</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>88089</v>
+        <v>88065</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0850874555171087</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06795734908057365</v>
+        <v>0.06775916041517535</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1024835266144863</v>
+        <v>0.1024566215988456</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>178</v>
@@ -1718,19 +1718,19 @@
         <v>161001</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>137906</v>
+        <v>137241</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>188307</v>
+        <v>187119</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0808488665293121</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06925123514865855</v>
+        <v>0.06891721583022652</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09456103497634535</v>
+        <v>0.09396420804246944</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>1030640</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1006790</v>
+        <v>1005368</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1049368</v>
+        <v>1049460</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9105854343560684</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8895134170252629</v>
+        <v>0.8882575274453351</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9271323716107868</v>
+        <v>0.9272131668657159</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1117</v>
@@ -1768,19 +1768,19 @@
         <v>773942</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>758755</v>
+        <v>758160</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>789612</v>
+        <v>790688</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9004152632496496</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.882745943447097</v>
+        <v>0.8820541462160627</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9186457520122979</v>
+        <v>0.9198981971251804</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2137</v>
@@ -1789,19 +1789,19 @@
         <v>1804582</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1776289</v>
+        <v>1777606</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1829590</v>
+        <v>1830864</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9061956903204894</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8919879232407204</v>
+        <v>0.8926492553637023</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9187538657921476</v>
+        <v>0.9193937452305898</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>22141</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14160</v>
+        <v>13005</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>33456</v>
+        <v>33957</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.03898278838709548</v>
+        <v>0.03898278838709547</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02493039731953017</v>
+        <v>0.02289731954142254</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0589055477436739</v>
+        <v>0.05978642876761773</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>30</v>
@@ -1914,19 +1914,19 @@
         <v>20733</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13574</v>
+        <v>13518</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30631</v>
+        <v>29524</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02495396115626964</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01633708893344451</v>
+        <v>0.01626984467705713</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03686670445209383</v>
+        <v>0.03553529107601148</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>51</v>
@@ -1935,19 +1935,19 @@
         <v>42874</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>32320</v>
+        <v>31303</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>58534</v>
+        <v>56638</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03065011899262544</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02310497872575644</v>
+        <v>0.02237850532249029</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04184520408588165</v>
+        <v>0.04048967185696117</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>80624</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>65471</v>
+        <v>64088</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>99631</v>
+        <v>101545</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1419522314133052</v>
+        <v>0.1419522314133051</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1152723936827076</v>
+        <v>0.1128387213780419</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1754183698294112</v>
+        <v>0.1787883748708174</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>142</v>
@@ -1985,19 +1985,19 @@
         <v>98723</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>83400</v>
+        <v>82429</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>116410</v>
+        <v>115475</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.118821405048849</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1003786257675314</v>
+        <v>0.09921069170541766</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1401090070471406</v>
+        <v>0.1389845814023502</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>222</v>
@@ -2006,19 +2006,19 @@
         <v>179347</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>157462</v>
+        <v>155903</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>205490</v>
+        <v>207241</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1282132690792057</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1125682212164691</v>
+        <v>0.1114536547600539</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1469027864345176</v>
+        <v>0.1481545312767645</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>465199</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>445998</v>
+        <v>445100</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>482935</v>
+        <v>485344</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8190649801995995</v>
+        <v>0.8190649801995993</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7852577071998157</v>
+        <v>0.7836756889048916</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8502920533660953</v>
+        <v>0.8545338723869862</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1118</v>
@@ -2056,19 +2056,19 @@
         <v>711394</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>692106</v>
+        <v>693513</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>728200</v>
+        <v>729616</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8562246337948813</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8330099231110076</v>
+        <v>0.8347032564443106</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.876451705662762</v>
+        <v>0.878155601712597</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1564</v>
@@ -2077,19 +2077,19 @@
         <v>1176594</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1147866</v>
+        <v>1145874</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1202426</v>
+        <v>1202022</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8411366119281689</v>
+        <v>0.8411366119281688</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8205994499249705</v>
+        <v>0.8191753164307026</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8596036957258862</v>
+        <v>0.8593148156040408</v>
       </c>
     </row>
     <row r="23">
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18816</v>
+        <v>18572</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0173670300715996</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07931440044439998</v>
+        <v>0.07828839994099107</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>14</v>
@@ -2202,19 +2202,19 @@
         <v>10244</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5767</v>
+        <v>5586</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17747</v>
+        <v>17452</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01214147145525187</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.006836003396738142</v>
+        <v>0.006621156368064362</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02103458650876634</v>
+        <v>0.02068502932758396</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>16</v>
@@ -2223,19 +2223,19 @@
         <v>14364</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7827</v>
+        <v>8042</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>25730</v>
+        <v>26284</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01328832443163363</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.007241227145488455</v>
+        <v>0.00743975243476915</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.023804096041765</v>
+        <v>0.0243161774715892</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>11493</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4360</v>
+        <v>3797</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27354</v>
+        <v>26973</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04844513400846279</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01837846406747556</v>
+        <v>0.01600685893844226</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1153049715560123</v>
+        <v>0.1136996683854565</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>105</v>
@@ -2273,19 +2273,19 @@
         <v>81527</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>64690</v>
+        <v>66003</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>98319</v>
+        <v>99800</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.09663166877769706</v>
+        <v>0.09663166877769705</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07667507421370594</v>
+        <v>0.07823160983059892</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1165352728975713</v>
+        <v>0.1182905559297153</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>110</v>
@@ -2294,19 +2294,19 @@
         <v>93019</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>74147</v>
+        <v>76024</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>113262</v>
+        <v>114589</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.08605617343281011</v>
+        <v>0.08605617343281007</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06859625223250283</v>
+        <v>0.07033300898417703</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1047836143927374</v>
+        <v>0.106011693295149</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>221616</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>205687</v>
+        <v>206297</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>231097</v>
+        <v>231188</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9341878359199376</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8670441832991391</v>
+        <v>0.8696159328123154</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9741575265535413</v>
+        <v>0.9745375899086879</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1039</v>
@@ -2344,19 +2344,19 @@
         <v>751914</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>734818</v>
+        <v>732426</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>770431</v>
+        <v>768627</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8912268597670512</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8709636972157817</v>
+        <v>0.8681287678540516</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9131743597166457</v>
+        <v>0.9110365582249225</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1144</v>
@@ -2365,19 +2365,19 @@
         <v>973529</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>950799</v>
+        <v>951085</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>993887</v>
+        <v>992027</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9006555021355565</v>
+        <v>0.9006555021355561</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8796266938475332</v>
+        <v>0.8798916433596715</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9194896631048424</v>
+        <v>0.9177686899246226</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>59286</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>43515</v>
+        <v>44086</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>79716</v>
+        <v>81038</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01722669208787557</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01264418261378429</v>
+        <v>0.01280996301476376</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02316293303212401</v>
+        <v>0.02354696292655496</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>80</v>
@@ -2490,19 +2490,19 @@
         <v>56202</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>44866</v>
+        <v>44671</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>70632</v>
+        <v>71841</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01547531685045968</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01235398602008493</v>
+        <v>0.0123004376075083</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01944889552405518</v>
+        <v>0.01978156956639006</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>134</v>
@@ -2511,19 +2511,19 @@
         <v>115488</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>94628</v>
+        <v>95026</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>137594</v>
+        <v>138702</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01632746326383641</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01337830388043431</v>
+        <v>0.01343452973801057</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01945277757519723</v>
+        <v>0.01960939434463974</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>282458</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>248557</v>
+        <v>249182</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>319248</v>
+        <v>321148</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08207304799144924</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07222263219034299</v>
+        <v>0.07240404939106222</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09276305189292564</v>
+        <v>0.09331517070348939</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>425</v>
@@ -2561,19 +2561,19 @@
         <v>319332</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>285989</v>
+        <v>290210</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>351593</v>
+        <v>350835</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.08792919392138124</v>
+        <v>0.08792919392138122</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07874812146503224</v>
+        <v>0.07991042441887695</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09681233850630601</v>
+        <v>0.09660384482063121</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>701</v>
@@ -2582,19 +2582,19 @@
         <v>601790</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>558097</v>
+        <v>557407</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>654136</v>
+        <v>653117</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08507983665984693</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07890264305565001</v>
+        <v>0.07880517585982376</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09248049911490512</v>
+        <v>0.09233634671025454</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>3099798</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3060963</v>
+        <v>3056306</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3136444</v>
+        <v>3136161</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.900700259920675</v>
+        <v>0.9007002599206753</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8894160132048561</v>
+        <v>0.8880629456204375</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9113483153808621</v>
+        <v>0.9112662337595491</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4734</v>
@@ -2632,19 +2632,19 @@
         <v>3256159</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3224093</v>
+        <v>3222773</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3291390</v>
+        <v>3288788</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.896595489228159</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8877661356456225</v>
+        <v>0.8874025736961797</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9062965695805258</v>
+        <v>0.9055800470132001</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>7703</v>
@@ -2653,19 +2653,19 @@
         <v>6355956</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6296858</v>
+        <v>6303515</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6407112</v>
+        <v>6406169</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8985927000763165</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8902374675287518</v>
+        <v>0.8911785661776206</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9058249773327441</v>
+        <v>0.9056916795644643</v>
       </c>
     </row>
     <row r="31">
